--- a/data/raw/election/voters-age-sex-education/2023/Bilecik.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Bilecik.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-voters-age-sex-education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\PycharmProjects\Git Folder\tartan-analytics\data\raw\election\voters-age-sex-education\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="37">
   <si>
     <t>Bilecik</t>
   </si>
@@ -124,6 +125,12 @@
   </si>
   <si>
     <t>Yenipazar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -657,7 +664,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -671,11 +678,20 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1005,10 +1021,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N212"/>
+  <dimension ref="A1:N214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K191" sqref="K191:K211"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="K188" sqref="K188:K212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,48 +1043,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1125,8 +1141,8 @@
       <c r="G6" s="4">
         <v>653</v>
       </c>
-      <c r="H6" s="4">
-        <v>2.3540000000000001</v>
+      <c r="H6" s="5">
+        <v>2354</v>
       </c>
       <c r="I6" s="4">
         <v>839</v>
@@ -1140,8 +1156,8 @@
       <c r="L6" s="4">
         <v>18</v>
       </c>
-      <c r="M6" s="5">
-        <v>3.8769999999999998</v>
+      <c r="M6" s="6">
+        <v>3877</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1164,8 +1180,8 @@
       <c r="G7" s="4">
         <v>410</v>
       </c>
-      <c r="H7" s="4">
-        <v>2.1949999999999998</v>
+      <c r="H7" s="5">
+        <v>2195</v>
       </c>
       <c r="I7" s="4">
         <v>815</v>
@@ -1179,8 +1195,8 @@
       <c r="L7" s="4">
         <v>14</v>
       </c>
-      <c r="M7" s="5">
-        <v>3.4569999999999999</v>
+      <c r="M7" s="6">
+        <v>3457</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1205,11 +1221,11 @@
       <c r="G8" s="4">
         <v>452</v>
       </c>
-      <c r="H8" s="4">
-        <v>1.008</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1.44</v>
+      <c r="H8" s="5">
+        <v>1008</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1440</v>
       </c>
       <c r="J8" s="4">
         <v>106</v>
@@ -1220,8 +1236,8 @@
       <c r="L8" s="4">
         <v>11</v>
       </c>
-      <c r="M8" s="5">
-        <v>3.0550000000000002</v>
+      <c r="M8" s="6">
+        <v>3055</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1247,8 +1263,8 @@
       <c r="H9" s="4">
         <v>646</v>
       </c>
-      <c r="I9" s="4">
-        <v>1.538</v>
+      <c r="I9" s="5">
+        <v>1538</v>
       </c>
       <c r="J9" s="4">
         <v>124</v>
@@ -1259,8 +1275,8 @@
       <c r="L9" s="4">
         <v>17</v>
       </c>
-      <c r="M9" s="5">
-        <v>2.714</v>
+      <c r="M9" s="6">
+        <v>2714</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1288,8 +1304,8 @@
       <c r="H10" s="4">
         <v>989</v>
       </c>
-      <c r="I10" s="4">
-        <v>1.27</v>
+      <c r="I10" s="5">
+        <v>1270</v>
       </c>
       <c r="J10" s="4">
         <v>175</v>
@@ -1300,8 +1316,8 @@
       <c r="L10" s="4">
         <v>16</v>
       </c>
-      <c r="M10" s="5">
-        <v>2.9470000000000001</v>
+      <c r="M10" s="6">
+        <v>2947</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1327,8 +1343,8 @@
       <c r="H11" s="4">
         <v>775</v>
       </c>
-      <c r="I11" s="4">
-        <v>1.2529999999999999</v>
+      <c r="I11" s="5">
+        <v>1253</v>
       </c>
       <c r="J11" s="4">
         <v>206</v>
@@ -1339,8 +1355,8 @@
       <c r="L11" s="4">
         <v>18</v>
       </c>
-      <c r="M11" s="5">
-        <v>2.8220000000000001</v>
+      <c r="M11" s="6">
+        <v>2822</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1365,8 +1381,8 @@
       <c r="G12" s="4">
         <v>172</v>
       </c>
-      <c r="H12" s="4">
-        <v>1.097</v>
+      <c r="H12" s="5">
+        <v>1097</v>
       </c>
       <c r="I12" s="4">
         <v>989</v>
@@ -1380,8 +1396,8 @@
       <c r="L12" s="4">
         <v>7</v>
       </c>
-      <c r="M12" s="5">
-        <v>2.9140000000000001</v>
+      <c r="M12" s="6">
+        <v>2914</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1419,8 +1435,8 @@
       <c r="L13" s="4">
         <v>16</v>
       </c>
-      <c r="M13" s="5">
-        <v>2.8769999999999998</v>
+      <c r="M13" s="6">
+        <v>2877</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1445,8 +1461,8 @@
       <c r="G14" s="4">
         <v>392</v>
       </c>
-      <c r="H14" s="4">
-        <v>1.224</v>
+      <c r="H14" s="5">
+        <v>1224</v>
       </c>
       <c r="I14" s="4">
         <v>748</v>
@@ -1460,8 +1476,8 @@
       <c r="L14" s="4">
         <v>11</v>
       </c>
-      <c r="M14" s="5">
-        <v>3.0609999999999999</v>
+      <c r="M14" s="6">
+        <v>3061</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1499,8 +1515,8 @@
       <c r="L15" s="4">
         <v>10</v>
       </c>
-      <c r="M15" s="5">
-        <v>3.0179999999999998</v>
+      <c r="M15" s="6">
+        <v>3018</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1540,8 +1556,8 @@
       <c r="L16" s="4">
         <v>14</v>
       </c>
-      <c r="M16" s="5">
-        <v>2.7280000000000002</v>
+      <c r="M16" s="6">
+        <v>2728</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1579,8 +1595,8 @@
       <c r="L17" s="4">
         <v>12</v>
       </c>
-      <c r="M17" s="5">
-        <v>2.589</v>
+      <c r="M17" s="6">
+        <v>2589</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1620,8 +1636,8 @@
       <c r="L18" s="4">
         <v>14</v>
       </c>
-      <c r="M18" s="5">
-        <v>2.5049999999999999</v>
+      <c r="M18" s="6">
+        <v>2505</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1659,8 +1675,8 @@
       <c r="L19" s="4">
         <v>8</v>
       </c>
-      <c r="M19" s="5">
-        <v>2.2480000000000002</v>
+      <c r="M19" s="6">
+        <v>2248</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1700,8 +1716,8 @@
       <c r="L20" s="4">
         <v>5</v>
       </c>
-      <c r="M20" s="5">
-        <v>1.97</v>
+      <c r="M20" s="6">
+        <v>1970</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1739,8 +1755,8 @@
       <c r="L21" s="4">
         <v>13</v>
       </c>
-      <c r="M21" s="5">
-        <v>1.99</v>
+      <c r="M21" s="6">
+        <v>1990</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1780,8 +1796,8 @@
       <c r="L22" s="4">
         <v>17</v>
       </c>
-      <c r="M22" s="5">
-        <v>1.7470000000000001</v>
+      <c r="M22" s="6">
+        <v>1747</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1795,8 +1811,8 @@
       <c r="D23" s="4">
         <v>41</v>
       </c>
-      <c r="E23" s="4">
-        <v>1.0760000000000001</v>
+      <c r="E23" s="5">
+        <v>1076</v>
       </c>
       <c r="F23" s="4">
         <v>129</v>
@@ -1819,8 +1835,8 @@
       <c r="L23" s="4">
         <v>15</v>
       </c>
-      <c r="M23" s="5">
-        <v>1.8</v>
+      <c r="M23" s="6">
+        <v>1800</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1860,8 +1876,8 @@
       <c r="L24" s="4">
         <v>5</v>
       </c>
-      <c r="M24" s="5">
-        <v>1.339</v>
+      <c r="M24" s="6">
+        <v>1339</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1899,8 +1915,8 @@
       <c r="L25" s="4">
         <v>4</v>
       </c>
-      <c r="M25" s="5">
-        <v>1.3149999999999999</v>
+      <c r="M25" s="6">
+        <v>1315</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1940,7 +1956,7 @@
       <c r="L26" s="4">
         <v>8</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="7">
         <v>854</v>
       </c>
     </row>
@@ -1979,7 +1995,7 @@
       <c r="L27" s="4">
         <v>7</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="7">
         <v>997</v>
       </c>
     </row>
@@ -2020,8 +2036,8 @@
       <c r="L28" s="4">
         <v>3</v>
       </c>
-      <c r="M28" s="5">
-        <v>1.1140000000000001</v>
+      <c r="M28" s="6">
+        <v>1114</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2035,8 +2051,8 @@
       <c r="D29" s="4">
         <v>202</v>
       </c>
-      <c r="E29" s="4">
-        <v>1.1970000000000001</v>
+      <c r="E29" s="5">
+        <v>1197</v>
       </c>
       <c r="F29" s="4">
         <v>4</v>
@@ -2059,54 +2075,54 @@
       <c r="L29" s="4">
         <v>11</v>
       </c>
-      <c r="M29" s="5">
-        <v>1.7549999999999999</v>
+      <c r="M29" s="6">
+        <v>1755</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
+      <c r="B30" s="8"/>
+      <c r="C30" s="7">
         <v>499</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="7">
         <v>628</v>
       </c>
-      <c r="E30" s="5">
-        <v>10.458</v>
-      </c>
-      <c r="F30" s="5">
-        <v>4.5490000000000004</v>
-      </c>
-      <c r="G30" s="5">
-        <v>6.7009999999999996</v>
-      </c>
-      <c r="H30" s="5">
-        <v>17.521000000000001</v>
-      </c>
-      <c r="I30" s="5">
-        <v>13.231999999999999</v>
-      </c>
-      <c r="J30" s="5">
-        <v>1.462</v>
-      </c>
-      <c r="K30" s="5">
+      <c r="E30" s="6">
+        <v>10458</v>
+      </c>
+      <c r="F30" s="6">
+        <v>4549</v>
+      </c>
+      <c r="G30" s="6">
+        <v>6701</v>
+      </c>
+      <c r="H30" s="6">
+        <v>17521</v>
+      </c>
+      <c r="I30" s="6">
+        <v>13232</v>
+      </c>
+      <c r="J30" s="6">
+        <v>1462</v>
+      </c>
+      <c r="K30" s="7">
         <v>369</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="7">
         <v>274</v>
       </c>
-      <c r="M30" s="5">
-        <v>55.692999999999998</v>
+      <c r="M30" s="6">
+        <v>55693</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2163,8 +2179,8 @@
       <c r="G32" s="4">
         <v>823</v>
       </c>
-      <c r="H32" s="4">
-        <v>2.6440000000000001</v>
+      <c r="H32" s="5">
+        <v>2644</v>
       </c>
       <c r="I32" s="4">
         <v>484</v>
@@ -2178,8 +2194,8 @@
       <c r="L32" s="4">
         <v>42</v>
       </c>
-      <c r="M32" s="5">
-        <v>4.0259999999999998</v>
+      <c r="M32" s="6">
+        <v>4026</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2202,8 +2218,8 @@
       <c r="G33" s="4">
         <v>748</v>
       </c>
-      <c r="H33" s="4">
-        <v>2.3340000000000001</v>
+      <c r="H33" s="5">
+        <v>2334</v>
       </c>
       <c r="I33" s="4">
         <v>755</v>
@@ -2217,8 +2233,8 @@
       <c r="L33" s="4">
         <v>24</v>
       </c>
-      <c r="M33" s="5">
-        <v>3.895</v>
+      <c r="M33" s="6">
+        <v>3895</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2243,11 +2259,11 @@
       <c r="G34" s="4">
         <v>500</v>
       </c>
-      <c r="H34" s="4">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="I34" s="4">
-        <v>1.0269999999999999</v>
+      <c r="H34" s="5">
+        <v>1239</v>
+      </c>
+      <c r="I34" s="5">
+        <v>1027</v>
       </c>
       <c r="J34" s="4">
         <v>52</v>
@@ -2258,8 +2274,8 @@
       <c r="L34" s="4">
         <v>26</v>
       </c>
-      <c r="M34" s="5">
-        <v>2.8940000000000001</v>
+      <c r="M34" s="6">
+        <v>2894</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2285,8 +2301,8 @@
       <c r="H35" s="4">
         <v>827</v>
       </c>
-      <c r="I35" s="4">
-        <v>1.2490000000000001</v>
+      <c r="I35" s="5">
+        <v>1249</v>
       </c>
       <c r="J35" s="4">
         <v>77</v>
@@ -2297,8 +2313,8 @@
       <c r="L35" s="4">
         <v>22</v>
       </c>
-      <c r="M35" s="5">
-        <v>2.823</v>
+      <c r="M35" s="6">
+        <v>2823</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2323,11 +2339,11 @@
       <c r="G36" s="4">
         <v>227</v>
       </c>
-      <c r="H36" s="4">
-        <v>1.4059999999999999</v>
-      </c>
-      <c r="I36" s="4">
-        <v>1.04</v>
+      <c r="H36" s="5">
+        <v>1406</v>
+      </c>
+      <c r="I36" s="5">
+        <v>1040</v>
       </c>
       <c r="J36" s="4">
         <v>93</v>
@@ -2338,8 +2354,8 @@
       <c r="L36" s="4">
         <v>22</v>
       </c>
-      <c r="M36" s="5">
-        <v>3.0390000000000001</v>
+      <c r="M36" s="6">
+        <v>3039</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2365,8 +2381,8 @@
       <c r="H37" s="4">
         <v>988</v>
       </c>
-      <c r="I37" s="4">
-        <v>1.032</v>
+      <c r="I37" s="5">
+        <v>1032</v>
       </c>
       <c r="J37" s="4">
         <v>104</v>
@@ -2377,8 +2393,8 @@
       <c r="L37" s="4">
         <v>23</v>
       </c>
-      <c r="M37" s="5">
-        <v>2.9420000000000002</v>
+      <c r="M37" s="6">
+        <v>2942</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2403,8 +2419,8 @@
       <c r="G38" s="4">
         <v>177</v>
       </c>
-      <c r="H38" s="4">
-        <v>1.6419999999999999</v>
+      <c r="H38" s="5">
+        <v>1642</v>
       </c>
       <c r="I38" s="4">
         <v>832</v>
@@ -2418,8 +2434,8 @@
       <c r="L38" s="4">
         <v>22</v>
       </c>
-      <c r="M38" s="5">
-        <v>3.1760000000000002</v>
+      <c r="M38" s="6">
+        <v>3176</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2442,8 +2458,8 @@
       <c r="G39" s="4">
         <v>316</v>
       </c>
-      <c r="H39" s="4">
-        <v>1.1419999999999999</v>
+      <c r="H39" s="5">
+        <v>1142</v>
       </c>
       <c r="I39" s="4">
         <v>840</v>
@@ -2457,8 +2473,8 @@
       <c r="L39" s="4">
         <v>22</v>
       </c>
-      <c r="M39" s="5">
-        <v>3.1589999999999998</v>
+      <c r="M39" s="6">
+        <v>3159</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2483,8 +2499,8 @@
       <c r="G40" s="4">
         <v>419</v>
       </c>
-      <c r="H40" s="4">
-        <v>1.726</v>
+      <c r="H40" s="5">
+        <v>1726</v>
       </c>
       <c r="I40" s="4">
         <v>627</v>
@@ -2498,8 +2514,8 @@
       <c r="L40" s="4">
         <v>17</v>
       </c>
-      <c r="M40" s="5">
-        <v>3.35</v>
+      <c r="M40" s="6">
+        <v>3350</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2522,8 +2538,8 @@
       <c r="G41" s="4">
         <v>533</v>
       </c>
-      <c r="H41" s="4">
-        <v>1.026</v>
+      <c r="H41" s="5">
+        <v>1026</v>
       </c>
       <c r="I41" s="4">
         <v>488</v>
@@ -2537,8 +2553,8 @@
       <c r="L41" s="4">
         <v>17</v>
       </c>
-      <c r="M41" s="5">
-        <v>3.1179999999999999</v>
+      <c r="M41" s="6">
+        <v>3118</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2563,8 +2579,8 @@
       <c r="G42" s="4">
         <v>401</v>
       </c>
-      <c r="H42" s="4">
-        <v>1.2549999999999999</v>
+      <c r="H42" s="5">
+        <v>1255</v>
       </c>
       <c r="I42" s="4">
         <v>469</v>
@@ -2578,8 +2594,8 @@
       <c r="L42" s="4">
         <v>15</v>
       </c>
-      <c r="M42" s="5">
-        <v>2.819</v>
+      <c r="M42" s="6">
+        <v>2819</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2617,8 +2633,8 @@
       <c r="L43" s="4">
         <v>18</v>
       </c>
-      <c r="M43" s="5">
-        <v>2.8130000000000002</v>
+      <c r="M43" s="6">
+        <v>2813</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2658,8 +2674,8 @@
       <c r="L44" s="4">
         <v>19</v>
       </c>
-      <c r="M44" s="5">
-        <v>2.6429999999999998</v>
+      <c r="M44" s="6">
+        <v>2643</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2697,8 +2713,8 @@
       <c r="L45" s="4">
         <v>18</v>
       </c>
-      <c r="M45" s="5">
-        <v>2.6110000000000002</v>
+      <c r="M45" s="6">
+        <v>2611</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2738,8 +2754,8 @@
       <c r="L46" s="4">
         <v>13</v>
       </c>
-      <c r="M46" s="5">
-        <v>2.4060000000000001</v>
+      <c r="M46" s="6">
+        <v>2406</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2753,8 +2769,8 @@
       <c r="D47" s="4">
         <v>39</v>
       </c>
-      <c r="E47" s="4">
-        <v>1.181</v>
+      <c r="E47" s="5">
+        <v>1181</v>
       </c>
       <c r="F47" s="4">
         <v>348</v>
@@ -2777,8 +2793,8 @@
       <c r="L47" s="4">
         <v>21</v>
       </c>
-      <c r="M47" s="5">
-        <v>2.371</v>
+      <c r="M47" s="6">
+        <v>2371</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2818,8 +2834,8 @@
       <c r="L48" s="4">
         <v>13</v>
       </c>
-      <c r="M48" s="5">
-        <v>2.0539999999999998</v>
+      <c r="M48" s="6">
+        <v>2054</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2833,8 +2849,8 @@
       <c r="D49" s="4">
         <v>49</v>
       </c>
-      <c r="E49" s="4">
-        <v>1.349</v>
+      <c r="E49" s="5">
+        <v>1349</v>
       </c>
       <c r="F49" s="4">
         <v>173</v>
@@ -2857,8 +2873,8 @@
       <c r="L49" s="4">
         <v>13</v>
       </c>
-      <c r="M49" s="5">
-        <v>2.1320000000000001</v>
+      <c r="M49" s="6">
+        <v>2132</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2898,8 +2914,8 @@
       <c r="L50" s="4">
         <v>9</v>
       </c>
-      <c r="M50" s="5">
-        <v>1.6020000000000001</v>
+      <c r="M50" s="6">
+        <v>1602</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2913,8 +2929,8 @@
       <c r="D51" s="4">
         <v>71</v>
       </c>
-      <c r="E51" s="4">
-        <v>1.171</v>
+      <c r="E51" s="5">
+        <v>1171</v>
       </c>
       <c r="F51" s="4">
         <v>69</v>
@@ -2937,8 +2953,8 @@
       <c r="L51" s="4">
         <v>11</v>
       </c>
-      <c r="M51" s="5">
-        <v>1.62</v>
+      <c r="M51" s="6">
+        <v>1620</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2978,7 +2994,7 @@
       <c r="L52" s="4">
         <v>13</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="7">
         <v>889</v>
       </c>
     </row>
@@ -3017,8 +3033,8 @@
       <c r="L53" s="4">
         <v>16</v>
       </c>
-      <c r="M53" s="5">
-        <v>1.1220000000000001</v>
+      <c r="M53" s="6">
+        <v>1122</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3058,8 +3074,8 @@
       <c r="L54" s="4">
         <v>11</v>
       </c>
-      <c r="M54" s="5">
-        <v>1.1060000000000001</v>
+      <c r="M54" s="6">
+        <v>1106</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3073,8 +3089,8 @@
       <c r="D55" s="4">
         <v>268</v>
       </c>
-      <c r="E55" s="4">
-        <v>1.02</v>
+      <c r="E55" s="5">
+        <v>1020</v>
       </c>
       <c r="F55" s="4">
         <v>9</v>
@@ -3097,54 +3113,54 @@
       <c r="L55" s="4">
         <v>22</v>
       </c>
-      <c r="M55" s="5">
-        <v>1.746</v>
+      <c r="M55" s="6">
+        <v>1746</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
+      <c r="B56" s="8"/>
+      <c r="C56" s="7">
         <v>765</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="7">
         <v>943</v>
       </c>
-      <c r="E56" s="5">
-        <v>12.294</v>
-      </c>
-      <c r="F56" s="5">
-        <v>5.2850000000000001</v>
-      </c>
-      <c r="G56" s="5">
-        <v>8.2590000000000003</v>
-      </c>
-      <c r="H56" s="5">
-        <v>20.8</v>
-      </c>
-      <c r="I56" s="5">
-        <v>10.631</v>
-      </c>
-      <c r="J56" s="5">
+      <c r="E56" s="6">
+        <v>12294</v>
+      </c>
+      <c r="F56" s="6">
+        <v>5285</v>
+      </c>
+      <c r="G56" s="6">
+        <v>8259</v>
+      </c>
+      <c r="H56" s="6">
+        <v>20800</v>
+      </c>
+      <c r="I56" s="6">
+        <v>10631</v>
+      </c>
+      <c r="J56" s="7">
         <v>863</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="7">
         <v>67</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="7">
         <v>449</v>
       </c>
-      <c r="M56" s="5">
-        <v>60.356000000000002</v>
+      <c r="M56" s="6">
+        <v>60356</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3216,7 +3232,7 @@
       <c r="L58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="7">
         <v>276</v>
       </c>
     </row>
@@ -3255,7 +3271,7 @@
       <c r="L59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="7">
         <v>279</v>
       </c>
     </row>
@@ -3296,7 +3312,7 @@
       <c r="L60" s="4">
         <v>2</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="7">
         <v>238</v>
       </c>
     </row>
@@ -3335,7 +3351,7 @@
       <c r="L61" s="4">
         <v>1</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="7">
         <v>184</v>
       </c>
     </row>
@@ -3376,7 +3392,7 @@
       <c r="L62" s="4">
         <v>2</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="7">
         <v>232</v>
       </c>
     </row>
@@ -3415,7 +3431,7 @@
       <c r="L63" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="7">
         <v>173</v>
       </c>
     </row>
@@ -3456,7 +3472,7 @@
       <c r="L64" s="4">
         <v>8</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="7">
         <v>230</v>
       </c>
     </row>
@@ -3495,7 +3511,7 @@
       <c r="L65" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="7">
         <v>183</v>
       </c>
     </row>
@@ -3536,7 +3552,7 @@
       <c r="L66" s="4">
         <v>4</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="7">
         <v>240</v>
       </c>
     </row>
@@ -3575,7 +3591,7 @@
       <c r="L67" s="4">
         <v>2</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="7">
         <v>179</v>
       </c>
     </row>
@@ -3616,7 +3632,7 @@
       <c r="L68" s="4">
         <v>2</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="7">
         <v>226</v>
       </c>
     </row>
@@ -3655,7 +3671,7 @@
       <c r="L69" s="4">
         <v>1</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="7">
         <v>209</v>
       </c>
     </row>
@@ -3696,7 +3712,7 @@
       <c r="L70" s="4">
         <v>4</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="7">
         <v>267</v>
       </c>
     </row>
@@ -3735,7 +3751,7 @@
       <c r="L71" s="4">
         <v>2</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="7">
         <v>300</v>
       </c>
     </row>
@@ -3776,7 +3792,7 @@
       <c r="L72" s="4">
         <v>2</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="7">
         <v>360</v>
       </c>
     </row>
@@ -3815,7 +3831,7 @@
       <c r="L73" s="4">
         <v>2</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="7">
         <v>352</v>
       </c>
     </row>
@@ -3856,7 +3872,7 @@
       <c r="L74" s="4">
         <v>1</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="7">
         <v>433</v>
       </c>
     </row>
@@ -3895,7 +3911,7 @@
       <c r="L75" s="4">
         <v>1</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="7">
         <v>463</v>
       </c>
     </row>
@@ -3936,7 +3952,7 @@
       <c r="L76" s="4">
         <v>5</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="7">
         <v>386</v>
       </c>
     </row>
@@ -3975,7 +3991,7 @@
       <c r="L77" s="4">
         <v>4</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="7">
         <v>409</v>
       </c>
     </row>
@@ -4016,7 +4032,7 @@
       <c r="L78" s="4">
         <v>7</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="7">
         <v>365</v>
       </c>
     </row>
@@ -4055,7 +4071,7 @@
       <c r="L79" s="4">
         <v>3</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="7">
         <v>363</v>
       </c>
     </row>
@@ -4096,7 +4112,7 @@
       <c r="L80" s="4">
         <v>3</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="7">
         <v>495</v>
       </c>
     </row>
@@ -4135,7 +4151,7 @@
       <c r="L81" s="4">
         <v>2</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="7">
         <v>738</v>
       </c>
     </row>
@@ -4143,46 +4159,46 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="8"/>
+      <c r="C82" s="7">
         <v>304</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="7">
         <v>323</v>
       </c>
-      <c r="E82" s="5">
-        <v>3.1989999999999998</v>
-      </c>
-      <c r="F82" s="5">
+      <c r="E82" s="6">
+        <v>3199</v>
+      </c>
+      <c r="F82" s="7">
         <v>441</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G82" s="7">
         <v>775</v>
       </c>
-      <c r="H82" s="5">
-        <v>1.512</v>
-      </c>
-      <c r="I82" s="5">
+      <c r="H82" s="6">
+        <v>1512</v>
+      </c>
+      <c r="I82" s="7">
         <v>899</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J82" s="7">
         <v>67</v>
       </c>
-      <c r="K82" s="5">
-        <v>2</v>
-      </c>
-      <c r="L82" s="5">
+      <c r="K82" s="7">
+        <v>2</v>
+      </c>
+      <c r="L82" s="7">
         <v>58</v>
       </c>
-      <c r="M82" s="5">
-        <v>7.58</v>
+      <c r="M82" s="6">
+        <v>7580</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4254,7 +4270,7 @@
       <c r="L84" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M84" s="5">
+      <c r="M84" s="7">
         <v>51</v>
       </c>
     </row>
@@ -4293,7 +4309,7 @@
       <c r="L85" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M85" s="5">
+      <c r="M85" s="7">
         <v>50</v>
       </c>
     </row>
@@ -4334,7 +4350,7 @@
       <c r="L86" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M86" s="5">
+      <c r="M86" s="7">
         <v>53</v>
       </c>
     </row>
@@ -4373,7 +4389,7 @@
       <c r="L87" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M87" s="5">
+      <c r="M87" s="7">
         <v>30</v>
       </c>
     </row>
@@ -4414,7 +4430,7 @@
       <c r="L88" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M88" s="5">
+      <c r="M88" s="7">
         <v>59</v>
       </c>
     </row>
@@ -4453,7 +4469,7 @@
       <c r="L89" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M89" s="5">
+      <c r="M89" s="7">
         <v>32</v>
       </c>
     </row>
@@ -4494,7 +4510,7 @@
       <c r="L90" s="4">
         <v>1</v>
       </c>
-      <c r="M90" s="5">
+      <c r="M90" s="7">
         <v>38</v>
       </c>
     </row>
@@ -4533,7 +4549,7 @@
       <c r="L91" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="7">
         <v>29</v>
       </c>
     </row>
@@ -4574,7 +4590,7 @@
       <c r="L92" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M92" s="5">
+      <c r="M92" s="7">
         <v>41</v>
       </c>
     </row>
@@ -4613,7 +4629,7 @@
       <c r="L93" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M93" s="5">
+      <c r="M93" s="7">
         <v>22</v>
       </c>
     </row>
@@ -4654,7 +4670,7 @@
       <c r="L94" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M94" s="5">
+      <c r="M94" s="7">
         <v>48</v>
       </c>
     </row>
@@ -4693,7 +4709,7 @@
       <c r="L95" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="7">
         <v>48</v>
       </c>
     </row>
@@ -4734,7 +4750,7 @@
       <c r="L96" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="7">
         <v>85</v>
       </c>
     </row>
@@ -4773,7 +4789,7 @@
       <c r="L97" s="4">
         <v>1</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="7">
         <v>75</v>
       </c>
     </row>
@@ -4814,7 +4830,7 @@
       <c r="L98" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="7">
         <v>96</v>
       </c>
     </row>
@@ -4853,7 +4869,7 @@
       <c r="L99" s="4">
         <v>1</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="7">
         <v>103</v>
       </c>
     </row>
@@ -4894,7 +4910,7 @@
       <c r="L100" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="7">
         <v>115</v>
       </c>
     </row>
@@ -4933,7 +4949,7 @@
       <c r="L101" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="7">
         <v>122</v>
       </c>
     </row>
@@ -4974,7 +4990,7 @@
       <c r="L102" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="7">
         <v>124</v>
       </c>
     </row>
@@ -5013,7 +5029,7 @@
       <c r="L103" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="7">
         <v>118</v>
       </c>
     </row>
@@ -5054,7 +5070,7 @@
       <c r="L104" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="7">
         <v>82</v>
       </c>
     </row>
@@ -5093,7 +5109,7 @@
       <c r="L105" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="7">
         <v>106</v>
       </c>
     </row>
@@ -5134,7 +5150,7 @@
       <c r="L106" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="7">
         <v>173</v>
       </c>
     </row>
@@ -5173,7 +5189,7 @@
       <c r="L107" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="7">
         <v>230</v>
       </c>
     </row>
@@ -5181,46 +5197,46 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
+      <c r="B108" s="8"/>
+      <c r="C108" s="7">
         <v>55</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="7">
         <v>67</v>
       </c>
-      <c r="E108" s="5">
-        <v>1.048</v>
-      </c>
-      <c r="F108" s="5">
+      <c r="E108" s="6">
+        <v>1048</v>
+      </c>
+      <c r="F108" s="7">
         <v>133</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G108" s="7">
         <v>201</v>
       </c>
-      <c r="H108" s="5">
+      <c r="H108" s="7">
         <v>249</v>
       </c>
-      <c r="I108" s="5">
+      <c r="I108" s="7">
         <v>162</v>
       </c>
-      <c r="J108" s="5">
+      <c r="J108" s="7">
         <v>11</v>
       </c>
-      <c r="K108" s="5">
-        <v>1</v>
-      </c>
-      <c r="L108" s="5">
-        <v>3</v>
-      </c>
-      <c r="M108" s="5">
-        <v>1.93</v>
+      <c r="K108" s="7">
+        <v>1</v>
+      </c>
+      <c r="L108" s="7">
+        <v>3</v>
+      </c>
+      <c r="M108" s="6">
+        <v>1930</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5292,8 +5308,8 @@
       <c r="L110" s="4">
         <v>5</v>
       </c>
-      <c r="M110" s="5">
-        <v>1.052</v>
+      <c r="M110" s="6">
+        <v>1052</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5331,8 +5347,8 @@
       <c r="L111" s="4">
         <v>3</v>
       </c>
-      <c r="M111" s="5">
-        <v>1.046</v>
+      <c r="M111" s="6">
+        <v>1046</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5372,7 +5388,7 @@
       <c r="L112" s="4">
         <v>2</v>
       </c>
-      <c r="M112" s="5">
+      <c r="M112" s="7">
         <v>807</v>
       </c>
     </row>
@@ -5411,7 +5427,7 @@
       <c r="L113" s="4">
         <v>5</v>
       </c>
-      <c r="M113" s="5">
+      <c r="M113" s="7">
         <v>735</v>
       </c>
     </row>
@@ -5452,7 +5468,7 @@
       <c r="L114" s="4">
         <v>4</v>
       </c>
-      <c r="M114" s="5">
+      <c r="M114" s="7">
         <v>750</v>
       </c>
     </row>
@@ -5491,7 +5507,7 @@
       <c r="L115" s="4">
         <v>4</v>
       </c>
-      <c r="M115" s="5">
+      <c r="M115" s="7">
         <v>764</v>
       </c>
     </row>
@@ -5532,7 +5548,7 @@
       <c r="L116" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M116" s="5">
+      <c r="M116" s="7">
         <v>788</v>
       </c>
     </row>
@@ -5571,7 +5587,7 @@
       <c r="L117" s="4">
         <v>3</v>
       </c>
-      <c r="M117" s="5">
+      <c r="M117" s="7">
         <v>714</v>
       </c>
     </row>
@@ -5612,7 +5628,7 @@
       <c r="L118" s="4">
         <v>2</v>
       </c>
-      <c r="M118" s="5">
+      <c r="M118" s="7">
         <v>831</v>
       </c>
     </row>
@@ -5651,7 +5667,7 @@
       <c r="L119" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M119" s="5">
+      <c r="M119" s="7">
         <v>787</v>
       </c>
     </row>
@@ -5692,7 +5708,7 @@
       <c r="L120" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M120" s="5">
+      <c r="M120" s="7">
         <v>762</v>
       </c>
     </row>
@@ -5731,7 +5747,7 @@
       <c r="L121" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M121" s="5">
+      <c r="M121" s="7">
         <v>719</v>
       </c>
     </row>
@@ -5772,7 +5788,7 @@
       <c r="L122" s="4">
         <v>3</v>
       </c>
-      <c r="M122" s="5">
+      <c r="M122" s="7">
         <v>729</v>
       </c>
     </row>
@@ -5811,7 +5827,7 @@
       <c r="L123" s="4">
         <v>2</v>
       </c>
-      <c r="M123" s="5">
+      <c r="M123" s="7">
         <v>721</v>
       </c>
     </row>
@@ -5852,7 +5868,7 @@
       <c r="L124" s="4">
         <v>2</v>
       </c>
-      <c r="M124" s="5">
+      <c r="M124" s="7">
         <v>708</v>
       </c>
     </row>
@@ -5891,7 +5907,7 @@
       <c r="L125" s="4">
         <v>3</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="7">
         <v>703</v>
       </c>
     </row>
@@ -5932,7 +5948,7 @@
       <c r="L126" s="4">
         <v>1</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="7">
         <v>656</v>
       </c>
     </row>
@@ -5971,7 +5987,7 @@
       <c r="L127" s="4">
         <v>3</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="7">
         <v>678</v>
       </c>
     </row>
@@ -6012,7 +6028,7 @@
       <c r="L128" s="4">
         <v>2</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="7">
         <v>577</v>
       </c>
     </row>
@@ -6051,7 +6067,7 @@
       <c r="L129" s="4">
         <v>1</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="7">
         <v>568</v>
       </c>
     </row>
@@ -6092,7 +6108,7 @@
       <c r="L130" s="4">
         <v>1</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="7">
         <v>353</v>
       </c>
     </row>
@@ -6131,7 +6147,7 @@
       <c r="L131" s="4">
         <v>1</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="7">
         <v>428</v>
       </c>
     </row>
@@ -6172,7 +6188,7 @@
       <c r="L132" s="4">
         <v>2</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="7">
         <v>386</v>
       </c>
     </row>
@@ -6211,7 +6227,7 @@
       <c r="L133" s="4">
         <v>3</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="7">
         <v>573</v>
       </c>
     </row>
@@ -6219,46 +6235,46 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
+      <c r="B134" s="8"/>
+      <c r="C134" s="7">
         <v>318</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="7">
         <v>294</v>
       </c>
-      <c r="E134" s="5">
-        <v>4.7450000000000001</v>
-      </c>
-      <c r="F134" s="5">
-        <v>1.7969999999999999</v>
-      </c>
-      <c r="G134" s="5">
-        <v>2.6139999999999999</v>
-      </c>
-      <c r="H134" s="5">
-        <v>4.593</v>
-      </c>
-      <c r="I134" s="5">
-        <v>2.218</v>
-      </c>
-      <c r="J134" s="5">
+      <c r="E134" s="6">
+        <v>4745</v>
+      </c>
+      <c r="F134" s="6">
+        <v>1797</v>
+      </c>
+      <c r="G134" s="6">
+        <v>2614</v>
+      </c>
+      <c r="H134" s="6">
+        <v>4593</v>
+      </c>
+      <c r="I134" s="6">
+        <v>2218</v>
+      </c>
+      <c r="J134" s="7">
         <v>173</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="7">
         <v>31</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="7">
         <v>52</v>
       </c>
-      <c r="M134" s="5">
-        <v>16.835000000000001</v>
+      <c r="M134" s="6">
+        <v>16835</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="11"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6330,7 +6346,7 @@
       <c r="L136" s="4">
         <v>3</v>
       </c>
-      <c r="M136" s="5">
+      <c r="M136" s="7">
         <v>387</v>
       </c>
     </row>
@@ -6369,7 +6385,7 @@
       <c r="L137" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M137" s="5">
+      <c r="M137" s="7">
         <v>358</v>
       </c>
     </row>
@@ -6410,7 +6426,7 @@
       <c r="L138" s="4">
         <v>1</v>
       </c>
-      <c r="M138" s="5">
+      <c r="M138" s="7">
         <v>285</v>
       </c>
     </row>
@@ -6449,7 +6465,7 @@
       <c r="L139" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M139" s="5">
+      <c r="M139" s="7">
         <v>211</v>
       </c>
     </row>
@@ -6490,7 +6506,7 @@
       <c r="L140" s="4">
         <v>1</v>
       </c>
-      <c r="M140" s="5">
+      <c r="M140" s="7">
         <v>278</v>
       </c>
     </row>
@@ -6529,7 +6545,7 @@
       <c r="L141" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M141" s="5">
+      <c r="M141" s="7">
         <v>236</v>
       </c>
     </row>
@@ -6570,7 +6586,7 @@
       <c r="L142" s="4">
         <v>1</v>
       </c>
-      <c r="M142" s="5">
+      <c r="M142" s="7">
         <v>302</v>
       </c>
     </row>
@@ -6609,7 +6625,7 @@
       <c r="L143" s="4">
         <v>1</v>
       </c>
-      <c r="M143" s="5">
+      <c r="M143" s="7">
         <v>231</v>
       </c>
     </row>
@@ -6650,7 +6666,7 @@
       <c r="L144" s="4">
         <v>1</v>
       </c>
-      <c r="M144" s="5">
+      <c r="M144" s="7">
         <v>319</v>
       </c>
     </row>
@@ -6689,7 +6705,7 @@
       <c r="L145" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M145" s="5">
+      <c r="M145" s="7">
         <v>274</v>
       </c>
     </row>
@@ -6730,7 +6746,7 @@
       <c r="L146" s="4">
         <v>1</v>
       </c>
-      <c r="M146" s="5">
+      <c r="M146" s="7">
         <v>302</v>
       </c>
     </row>
@@ -6769,7 +6785,7 @@
       <c r="L147" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M147" s="5">
+      <c r="M147" s="7">
         <v>250</v>
       </c>
     </row>
@@ -6810,7 +6826,7 @@
       <c r="L148" s="4">
         <v>1</v>
       </c>
-      <c r="M148" s="5">
+      <c r="M148" s="7">
         <v>298</v>
       </c>
     </row>
@@ -6849,7 +6865,7 @@
       <c r="L149" s="4">
         <v>2</v>
       </c>
-      <c r="M149" s="5">
+      <c r="M149" s="7">
         <v>331</v>
       </c>
     </row>
@@ -6890,7 +6906,7 @@
       <c r="L150" s="4">
         <v>2</v>
       </c>
-      <c r="M150" s="5">
+      <c r="M150" s="7">
         <v>347</v>
       </c>
     </row>
@@ -6929,7 +6945,7 @@
       <c r="L151" s="4">
         <v>3</v>
       </c>
-      <c r="M151" s="5">
+      <c r="M151" s="7">
         <v>387</v>
       </c>
     </row>
@@ -6970,7 +6986,7 @@
       <c r="L152" s="4">
         <v>1</v>
       </c>
-      <c r="M152" s="5">
+      <c r="M152" s="7">
         <v>404</v>
       </c>
     </row>
@@ -7009,7 +7025,7 @@
       <c r="L153" s="4">
         <v>1</v>
       </c>
-      <c r="M153" s="5">
+      <c r="M153" s="7">
         <v>395</v>
       </c>
     </row>
@@ -7050,7 +7066,7 @@
       <c r="L154" s="4">
         <v>1</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="7">
         <v>358</v>
       </c>
     </row>
@@ -7089,7 +7105,7 @@
       <c r="L155" s="4">
         <v>5</v>
       </c>
-      <c r="M155" s="5">
+      <c r="M155" s="7">
         <v>413</v>
       </c>
     </row>
@@ -7130,7 +7146,7 @@
       <c r="L156" s="4">
         <v>2</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="7">
         <v>293</v>
       </c>
     </row>
@@ -7169,7 +7185,7 @@
       <c r="L157" s="4">
         <v>4</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="7">
         <v>305</v>
       </c>
     </row>
@@ -7210,7 +7226,7 @@
       <c r="L158" s="4">
         <v>6</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="7">
         <v>377</v>
       </c>
     </row>
@@ -7249,7 +7265,7 @@
       <c r="L159" s="4">
         <v>4</v>
       </c>
-      <c r="M159" s="5">
+      <c r="M159" s="7">
         <v>595</v>
       </c>
     </row>
@@ -7257,46 +7273,46 @@
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
+      <c r="B160" s="8"/>
+      <c r="C160" s="7">
         <v>204</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="7">
         <v>199</v>
       </c>
-      <c r="E160" s="5">
-        <v>3.0739999999999998</v>
-      </c>
-      <c r="F160" s="5">
+      <c r="E160" s="6">
+        <v>3074</v>
+      </c>
+      <c r="F160" s="7">
         <v>687</v>
       </c>
-      <c r="G160" s="5">
-        <v>1.0569999999999999</v>
-      </c>
-      <c r="H160" s="5">
-        <v>1.762</v>
-      </c>
-      <c r="I160" s="5">
+      <c r="G160" s="6">
+        <v>1057</v>
+      </c>
+      <c r="H160" s="6">
+        <v>1762</v>
+      </c>
+      <c r="I160" s="7">
         <v>847</v>
       </c>
-      <c r="J160" s="5">
+      <c r="J160" s="7">
         <v>57</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="7">
         <v>8</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="7">
         <v>41</v>
       </c>
-      <c r="M160" s="5">
-        <v>7.9359999999999999</v>
+      <c r="M160" s="6">
+        <v>7936</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="11"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7368,7 +7384,7 @@
       <c r="L162" s="4">
         <v>4</v>
       </c>
-      <c r="M162" s="5">
+      <c r="M162" s="7">
         <v>817</v>
       </c>
     </row>
@@ -7407,7 +7423,7 @@
       <c r="L163" s="4">
         <v>6</v>
       </c>
-      <c r="M163" s="5">
+      <c r="M163" s="7">
         <v>770</v>
       </c>
     </row>
@@ -7448,7 +7464,7 @@
       <c r="L164" s="4">
         <v>4</v>
       </c>
-      <c r="M164" s="5">
+      <c r="M164" s="7">
         <v>636</v>
       </c>
     </row>
@@ -7487,7 +7503,7 @@
       <c r="L165" s="4">
         <v>5</v>
       </c>
-      <c r="M165" s="5">
+      <c r="M165" s="7">
         <v>579</v>
       </c>
     </row>
@@ -7528,7 +7544,7 @@
       <c r="L166" s="4">
         <v>2</v>
       </c>
-      <c r="M166" s="5">
+      <c r="M166" s="7">
         <v>695</v>
       </c>
     </row>
@@ -7567,7 +7583,7 @@
       <c r="L167" s="4">
         <v>8</v>
       </c>
-      <c r="M167" s="5">
+      <c r="M167" s="7">
         <v>611</v>
       </c>
     </row>
@@ -7608,7 +7624,7 @@
       <c r="L168" s="4">
         <v>2</v>
       </c>
-      <c r="M168" s="5">
+      <c r="M168" s="7">
         <v>598</v>
       </c>
     </row>
@@ -7647,7 +7663,7 @@
       <c r="L169" s="4">
         <v>10</v>
       </c>
-      <c r="M169" s="5">
+      <c r="M169" s="7">
         <v>650</v>
       </c>
     </row>
@@ -7688,7 +7704,7 @@
       <c r="L170" s="4">
         <v>2</v>
       </c>
-      <c r="M170" s="5">
+      <c r="M170" s="7">
         <v>730</v>
       </c>
     </row>
@@ -7727,7 +7743,7 @@
       <c r="L171" s="4">
         <v>8</v>
       </c>
-      <c r="M171" s="5">
+      <c r="M171" s="7">
         <v>636</v>
       </c>
     </row>
@@ -7768,7 +7784,7 @@
       <c r="L172" s="4">
         <v>4</v>
       </c>
-      <c r="M172" s="5">
+      <c r="M172" s="7">
         <v>624</v>
       </c>
     </row>
@@ -7807,7 +7823,7 @@
       <c r="L173" s="4">
         <v>3</v>
       </c>
-      <c r="M173" s="5">
+      <c r="M173" s="7">
         <v>628</v>
       </c>
     </row>
@@ -7848,7 +7864,7 @@
       <c r="L174" s="4">
         <v>2</v>
       </c>
-      <c r="M174" s="5">
+      <c r="M174" s="7">
         <v>593</v>
       </c>
     </row>
@@ -7887,7 +7903,7 @@
       <c r="L175" s="4">
         <v>4</v>
       </c>
-      <c r="M175" s="5">
+      <c r="M175" s="7">
         <v>597</v>
       </c>
     </row>
@@ -7928,7 +7944,7 @@
       <c r="L176" s="4">
         <v>7</v>
       </c>
-      <c r="M176" s="5">
+      <c r="M176" s="7">
         <v>581</v>
       </c>
     </row>
@@ -7967,7 +7983,7 @@
       <c r="L177" s="4">
         <v>5</v>
       </c>
-      <c r="M177" s="5">
+      <c r="M177" s="7">
         <v>596</v>
       </c>
     </row>
@@ -8008,7 +8024,7 @@
       <c r="L178" s="4">
         <v>1</v>
       </c>
-      <c r="M178" s="5">
+      <c r="M178" s="7">
         <v>603</v>
       </c>
     </row>
@@ -8047,7 +8063,7 @@
       <c r="L179" s="4">
         <v>1</v>
       </c>
-      <c r="M179" s="5">
+      <c r="M179" s="7">
         <v>601</v>
       </c>
     </row>
@@ -8088,7 +8104,7 @@
       <c r="L180" s="4">
         <v>3</v>
       </c>
-      <c r="M180" s="5">
+      <c r="M180" s="7">
         <v>459</v>
       </c>
     </row>
@@ -8127,7 +8143,7 @@
       <c r="L181" s="4">
         <v>3</v>
       </c>
-      <c r="M181" s="5">
+      <c r="M181" s="7">
         <v>509</v>
       </c>
     </row>
@@ -8168,7 +8184,7 @@
       <c r="L182" s="4">
         <v>2</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="7">
         <v>312</v>
       </c>
     </row>
@@ -8207,7 +8223,7 @@
       <c r="L183" s="4">
         <v>2</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="7">
         <v>341</v>
       </c>
     </row>
@@ -8248,7 +8264,7 @@
       <c r="L184" s="4">
         <v>2</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="7">
         <v>405</v>
       </c>
     </row>
@@ -8287,7 +8303,7 @@
       <c r="L185" s="4">
         <v>2</v>
       </c>
-      <c r="M185" s="5">
+      <c r="M185" s="7">
         <v>675</v>
       </c>
     </row>
@@ -8295,46 +8311,46 @@
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
+      <c r="B186" s="8"/>
+      <c r="C186" s="7">
         <v>200</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="7">
         <v>241</v>
       </c>
-      <c r="E186" s="5">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="F186" s="5">
-        <v>1.3169999999999999</v>
-      </c>
-      <c r="G186" s="5">
-        <v>2.1190000000000002</v>
-      </c>
-      <c r="H186" s="5">
-        <v>3.581</v>
-      </c>
-      <c r="I186" s="5">
-        <v>2.1709999999999998</v>
-      </c>
-      <c r="J186" s="5">
+      <c r="E186" s="6">
+        <v>4360</v>
+      </c>
+      <c r="F186" s="6">
+        <v>1317</v>
+      </c>
+      <c r="G186" s="6">
+        <v>2119</v>
+      </c>
+      <c r="H186" s="6">
+        <v>3581</v>
+      </c>
+      <c r="I186" s="6">
+        <v>2171</v>
+      </c>
+      <c r="J186" s="7">
         <v>142</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="7">
         <v>23</v>
       </c>
-      <c r="L186" s="5">
+      <c r="L186" s="7">
         <v>92</v>
       </c>
-      <c r="M186" s="5">
-        <v>14.246</v>
+      <c r="M186" s="6">
+        <v>14246</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="11"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8359,7 +8375,7 @@
       <c r="J187" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K187" s="2" t="s">
+      <c r="K187" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L187" s="2" t="s">
@@ -8400,13 +8416,13 @@
       <c r="J188" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K188" s="4" t="s">
-        <v>15</v>
+      <c r="K188" s="4">
+        <v>0</v>
       </c>
       <c r="L188" s="4">
         <v>1</v>
       </c>
-      <c r="M188" s="5">
+      <c r="M188" s="7">
         <v>74</v>
       </c>
     </row>
@@ -8439,13 +8455,13 @@
       <c r="J189" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K189" s="4" t="s">
-        <v>15</v>
+      <c r="K189" s="4">
+        <v>0</v>
       </c>
       <c r="L189" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M189" s="5">
+      <c r="M189" s="7">
         <v>56</v>
       </c>
     </row>
@@ -8480,13 +8496,13 @@
       <c r="J190" s="4">
         <v>4</v>
       </c>
-      <c r="K190" s="4" t="s">
-        <v>15</v>
+      <c r="K190" s="4">
+        <v>0</v>
       </c>
       <c r="L190" s="4">
         <v>1</v>
       </c>
-      <c r="M190" s="5">
+      <c r="M190" s="7">
         <v>84</v>
       </c>
     </row>
@@ -8519,13 +8535,13 @@
       <c r="J191" s="4">
         <v>4</v>
       </c>
-      <c r="K191" s="4" t="s">
-        <v>15</v>
+      <c r="K191" s="4">
+        <v>0</v>
       </c>
       <c r="L191" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M191" s="5">
+      <c r="M191" s="7">
         <v>64</v>
       </c>
     </row>
@@ -8560,13 +8576,13 @@
       <c r="J192" s="4">
         <v>6</v>
       </c>
-      <c r="K192" s="4" t="s">
-        <v>15</v>
+      <c r="K192" s="4">
+        <v>0</v>
       </c>
       <c r="L192" s="4">
         <v>1</v>
       </c>
-      <c r="M192" s="5">
+      <c r="M192" s="7">
         <v>70</v>
       </c>
     </row>
@@ -8599,13 +8615,13 @@
       <c r="J193" s="4">
         <v>4</v>
       </c>
-      <c r="K193" s="4" t="s">
-        <v>15</v>
+      <c r="K193" s="4">
+        <v>0</v>
       </c>
       <c r="L193" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M193" s="5">
+      <c r="M193" s="7">
         <v>46</v>
       </c>
     </row>
@@ -8640,13 +8656,13 @@
       <c r="J194" s="4">
         <v>4</v>
       </c>
-      <c r="K194" s="4" t="s">
-        <v>15</v>
+      <c r="K194" s="4">
+        <v>0</v>
       </c>
       <c r="L194" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M194" s="5">
+      <c r="M194" s="7">
         <v>65</v>
       </c>
     </row>
@@ -8679,13 +8695,13 @@
       <c r="J195" s="4">
         <v>3</v>
       </c>
-      <c r="K195" s="4" t="s">
-        <v>15</v>
+      <c r="K195" s="4">
+        <v>0</v>
       </c>
       <c r="L195" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M195" s="5">
+      <c r="M195" s="7">
         <v>51</v>
       </c>
     </row>
@@ -8720,13 +8736,13 @@
       <c r="J196" s="4">
         <v>2</v>
       </c>
-      <c r="K196" s="4" t="s">
-        <v>15</v>
+      <c r="K196" s="4">
+        <v>0</v>
       </c>
       <c r="L196" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M196" s="5">
+      <c r="M196" s="7">
         <v>61</v>
       </c>
     </row>
@@ -8759,13 +8775,13 @@
       <c r="J197" s="4">
         <v>2</v>
       </c>
-      <c r="K197" s="4" t="s">
-        <v>15</v>
+      <c r="K197" s="4">
+        <v>0</v>
       </c>
       <c r="L197" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M197" s="5">
+      <c r="M197" s="7">
         <v>68</v>
       </c>
     </row>
@@ -8800,13 +8816,13 @@
       <c r="J198" s="4">
         <v>3</v>
       </c>
-      <c r="K198" s="4" t="s">
-        <v>15</v>
+      <c r="K198" s="4">
+        <v>0</v>
       </c>
       <c r="L198" s="4">
         <v>1</v>
       </c>
-      <c r="M198" s="5">
+      <c r="M198" s="7">
         <v>72</v>
       </c>
     </row>
@@ -8839,13 +8855,13 @@
       <c r="J199" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K199" s="4" t="s">
-        <v>15</v>
+      <c r="K199" s="4">
+        <v>0</v>
       </c>
       <c r="L199" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M199" s="5">
+      <c r="M199" s="7">
         <v>59</v>
       </c>
     </row>
@@ -8880,13 +8896,13 @@
       <c r="J200" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K200" s="4" t="s">
-        <v>15</v>
+      <c r="K200" s="4">
+        <v>0</v>
       </c>
       <c r="L200" s="4">
         <v>1</v>
       </c>
-      <c r="M200" s="5">
+      <c r="M200" s="7">
         <v>78</v>
       </c>
     </row>
@@ -8919,13 +8935,13 @@
       <c r="J201" s="4">
         <v>1</v>
       </c>
-      <c r="K201" s="4" t="s">
-        <v>15</v>
+      <c r="K201" s="4">
+        <v>0</v>
       </c>
       <c r="L201" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M201" s="5">
+      <c r="M201" s="7">
         <v>98</v>
       </c>
     </row>
@@ -8960,13 +8976,13 @@
       <c r="J202" s="4">
         <v>1</v>
       </c>
-      <c r="K202" s="4" t="s">
-        <v>15</v>
+      <c r="K202" s="4">
+        <v>0</v>
       </c>
       <c r="L202" s="4">
         <v>1</v>
       </c>
-      <c r="M202" s="5">
+      <c r="M202" s="7">
         <v>119</v>
       </c>
     </row>
@@ -8999,13 +9015,13 @@
       <c r="J203" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K203" s="4" t="s">
-        <v>15</v>
+      <c r="K203" s="4">
+        <v>0</v>
       </c>
       <c r="L203" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M203" s="5">
+      <c r="M203" s="7">
         <v>115</v>
       </c>
     </row>
@@ -9040,13 +9056,13 @@
       <c r="J204" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K204" s="4" t="s">
-        <v>15</v>
+      <c r="K204" s="4">
+        <v>0</v>
       </c>
       <c r="L204" s="4">
         <v>2</v>
       </c>
-      <c r="M204" s="5">
+      <c r="M204" s="7">
         <v>145</v>
       </c>
     </row>
@@ -9079,13 +9095,13 @@
       <c r="J205" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K205" s="4" t="s">
-        <v>15</v>
+      <c r="K205" s="4">
+        <v>0</v>
       </c>
       <c r="L205" s="4">
         <v>2</v>
       </c>
-      <c r="M205" s="5">
+      <c r="M205" s="7">
         <v>152</v>
       </c>
     </row>
@@ -9120,13 +9136,13 @@
       <c r="J206" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K206" s="4" t="s">
-        <v>15</v>
+      <c r="K206" s="4">
+        <v>0</v>
       </c>
       <c r="L206" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M206" s="5">
+      <c r="M206" s="7">
         <v>121</v>
       </c>
     </row>
@@ -9159,13 +9175,13 @@
       <c r="J207" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K207" s="4" t="s">
-        <v>15</v>
+      <c r="K207" s="4">
+        <v>0</v>
       </c>
       <c r="L207" s="4">
         <v>1</v>
       </c>
-      <c r="M207" s="5">
+      <c r="M207" s="7">
         <v>159</v>
       </c>
     </row>
@@ -9200,13 +9216,13 @@
       <c r="J208" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K208" s="4" t="s">
-        <v>15</v>
+      <c r="K208" s="4">
+        <v>0</v>
       </c>
       <c r="L208" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="7">
         <v>141</v>
       </c>
     </row>
@@ -9239,13 +9255,13 @@
       <c r="J209" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K209" s="4" t="s">
-        <v>15</v>
+      <c r="K209" s="4">
+        <v>0</v>
       </c>
       <c r="L209" s="4">
         <v>1</v>
       </c>
-      <c r="M209" s="5">
+      <c r="M209" s="7">
         <v>158</v>
       </c>
     </row>
@@ -9280,13 +9296,13 @@
       <c r="J210" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K210" s="4" t="s">
-        <v>15</v>
+      <c r="K210" s="4">
+        <v>0</v>
       </c>
       <c r="L210" s="4">
         <v>1</v>
       </c>
-      <c r="M210" s="5">
+      <c r="M210" s="7">
         <v>177</v>
       </c>
     </row>
@@ -9319,13 +9335,13 @@
       <c r="J211" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K211" s="4" t="s">
-        <v>15</v>
+      <c r="K211" s="4">
+        <v>0</v>
       </c>
       <c r="L211" s="4">
         <v>1</v>
       </c>
-      <c r="M211" s="5">
+      <c r="M211" s="7">
         <v>241</v>
       </c>
     </row>
@@ -9333,36 +9349,49 @@
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
+      <c r="B212" s="8"/>
+      <c r="C212" s="7">
         <v>100</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212" s="7">
         <v>85</v>
       </c>
-      <c r="E212" s="5">
-        <v>1.294</v>
-      </c>
-      <c r="F212" s="5">
+      <c r="E212" s="6">
+        <v>1294</v>
+      </c>
+      <c r="F212" s="7">
         <v>141</v>
       </c>
-      <c r="G212" s="5">
+      <c r="G212" s="7">
         <v>224</v>
       </c>
-      <c r="H212" s="5">
+      <c r="H212" s="7">
         <v>337</v>
       </c>
-      <c r="I212" s="5">
+      <c r="I212" s="7">
         <v>245</v>
       </c>
-      <c r="J212" s="5">
+      <c r="J212" s="7">
         <v>34</v>
       </c>
-      <c r="L212" s="5">
-        <v>14</v>
-      </c>
-      <c r="M212" s="5">
-        <v>2.4740000000000002</v>
+      <c r="K212" s="4">
+        <v>0</v>
+      </c>
+      <c r="L212" s="7">
+        <v>14</v>
+      </c>
+      <c r="M212" s="6">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A213" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A214" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
